--- a/EvaluationResults/RQ1/Baseline1-DD-10%-result.xlsx
+++ b/EvaluationResults/RQ1/Baseline1-DD-10%-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1A287-F235-5648-AE71-7940F085582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014F890-D961-C941-BDCE-0087FD352E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="llama" sheetId="1" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -3246,7 +3246,8 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>0</v>
+        <f>H40-I40</f>
+        <v>1</v>
       </c>
       <c r="K40" s="6">
         <v>3</v>
@@ -6401,7 +6402,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="8"/>
@@ -6439,7 +6440,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.64820846905537455</v>
+        <v>0.64610389610389607</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
@@ -6448,7 +6449,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.27812718378756113</v>
+        <v>0.27793296089385477</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
@@ -6457,7 +6458,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.76602491506228765</v>
+        <v>0.76585144927536231</v>
       </c>
     </row>
   </sheetData>
